--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1509838.245174372</v>
+        <v>-1512539.113891772</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>133.4582858480074</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>108.7306551413819</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>78.18599848964651</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>47.65883542934953</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>254.8821378997823</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>128.952164569064</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>111.5767559267679</v>
       </c>
       <c r="U7" t="n">
-        <v>135.0861613981515</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>91.61513712853227</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1190,10 +1190,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>113.2913457628582</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>105.1313528699078</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>75.36795338515417</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>125.2700607443034</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892451</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>177.100668059488</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>116.2836593751503</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>13.94435783112388</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428257</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2084,13 +2084,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>105.8965430419533</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,13 +2530,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>245.8796921214435</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>61.66004604094956</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2956,19 +2956,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652652</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,19 +3193,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002298</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808191</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,10 +3898,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,7 +3910,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1230.118083357703</v>
+        <v>597.0390406990323</v>
       </c>
       <c r="C2" t="n">
-        <v>1230.118083357703</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="D2" t="n">
-        <v>1230.118083357703</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4361,19 +4361,19 @@
         <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.012626270159</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>1990.183681682905</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W2" t="n">
-        <v>1990.183681682905</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X2" t="n">
-        <v>1616.717923421825</v>
+        <v>1373.778212738966</v>
       </c>
       <c r="Y2" t="n">
-        <v>1616.717923421825</v>
+        <v>983.638880763154</v>
       </c>
     </row>
     <row r="3">
@@ -4389,46 +4389,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143496</v>
+        <v>551.602574876695</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458213</v>
+        <v>846.3061319081668</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105041</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1626.535926176727</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>1457.59974324882</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>1457.59974324882</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>1378.623987198672</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>1231.734039700762</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>2459.755921915737</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>2459.755921915737</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>2170.637584419575</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1915.953096213688</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>1626.535926176727</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X4" t="n">
-        <v>1626.535926176727</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="Y4" t="n">
-        <v>1626.535926176727</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1302.576789404184</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C5" t="n">
-        <v>1302.576789404184</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974335</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4562,19 +4562,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4598,19 +4598,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2432.084616714232</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>2079.315961444117</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X5" t="n">
-        <v>2079.315961444117</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="Y5" t="n">
-        <v>1689.176629468306</v>
+        <v>1587.556048344953</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>619.8914390106347</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="C7" t="n">
-        <v>619.8914390106347</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="D7" t="n">
-        <v>619.8914390106347</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282416</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1421.158919724658</v>
       </c>
       <c r="U7" t="n">
-        <v>1277.016971190292</v>
+        <v>1132.040582228495</v>
       </c>
       <c r="V7" t="n">
-        <v>1022.332482984405</v>
+        <v>877.3560940226084</v>
       </c>
       <c r="W7" t="n">
-        <v>1022.332482984405</v>
+        <v>587.9389239856478</v>
       </c>
       <c r="X7" t="n">
-        <v>1022.332482984405</v>
+        <v>587.9389239856478</v>
       </c>
       <c r="Y7" t="n">
-        <v>801.5399038408744</v>
+        <v>367.1463448421176</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.332751740275</v>
+        <v>1117.969728759938</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.370234799863</v>
+        <v>1117.969728759938</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>759.7040301531877</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2469.798785846082</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2261.053144451907</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2007.472083716086</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2007.472083716086</v>
+        <v>1860.877716005864</v>
       </c>
       <c r="W8" t="n">
-        <v>2007.472083716086</v>
+        <v>1508.10906073575</v>
       </c>
       <c r="X8" t="n">
-        <v>2007.472083716086</v>
+        <v>1508.10906073575</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.332751740275</v>
+        <v>1117.969728759938</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143496</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458213</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>662.7751904765219</v>
+        <v>494.0245808582381</v>
       </c>
       <c r="C10" t="n">
-        <v>662.7751904765219</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="D10" t="n">
-        <v>662.7751904765219</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8620968941287</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962184</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4987,25 +4987,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.862713590079</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1533.862713590079</v>
+        <v>1038.126239101086</v>
       </c>
       <c r="V10" t="n">
-        <v>1279.178225384192</v>
+        <v>783.4417508951988</v>
       </c>
       <c r="W10" t="n">
-        <v>989.7610553472316</v>
+        <v>494.0245808582381</v>
       </c>
       <c r="X10" t="n">
-        <v>989.7610553472316</v>
+        <v>494.0245808582381</v>
       </c>
       <c r="Y10" t="n">
-        <v>768.9684762037015</v>
+        <v>494.0245808582381</v>
       </c>
     </row>
     <row r="11">
@@ -5042,16 +5042,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517213</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>747.3584617859333</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>597.2418223735975</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>449.3287287912044</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>302.438781293294</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831766</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1907.987318831766</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138402</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5358,25 +5358,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636217</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>986.1256051221279</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C16" t="n">
-        <v>817.189422194221</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D16" t="n">
-        <v>667.0727827818853</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782949</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797738</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1616.556199993915</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1388.566649095898</v>
+        <v>1130.19898568143</v>
       </c>
       <c r="Y16" t="n">
-        <v>1167.774069952368</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="17">
@@ -5501,40 +5501,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890283</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.11872044489</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270452</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5732,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5747,28 +5747,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703784</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>580.8993044876693</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>430.7826650753335</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>282.8695714929404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,7 +6005,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6069,22 +6069,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>352.5519571452613</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452613</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>701.4712640439268</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>532.5350811160199</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2384.680208791423</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2384.680208791423</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2165.078743814364</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1876.003517158562</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1621.319028952675</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1331.901858915714</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1103.912308017697</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>883.1197288741665</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,46 +6455,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
         <v>483.825546038073</v>
@@ -6692,10 +6692,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6710,37 +6710,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,10 +6853,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
@@ -6929,46 +6929,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7099,7 +7099,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,25 +7117,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,37 +7345,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>119.2902967703784</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384016</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7658,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7731,22 +7731,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345477</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780643</v>
+        <v>255.8421700460946</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>98.24448441976796</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0304328515147</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>280.1079373569284</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-2.160049916710705e-12</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-2.124729276157847e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>231.8146059230002</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>200.9907192867929</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>219.021603328753</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>370.3501790137195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>68.24796415692266</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>40.25407754796545</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>109.422330277103</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>30.15030327141886</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>211.7652975579133</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194129</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>39.52450498097792</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>40.30478226780065</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>4.715200669172098</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.583178160801231e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-5.704326028209812e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25084,10 +25084,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1277965.278126896</v>
+        <v>1277965.278126895</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1277965.278126896</v>
+        <v>1277965.278126895</v>
       </c>
     </row>
     <row r="10">
@@ -26314,16 +26314,16 @@
         <v>116044.8438455267</v>
       </c>
       <c r="C2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="D2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="E2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="F2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.6549457512</v>
       </c>
       <c r="G2" t="n">
         <v>141250.6549457511</v>
@@ -26338,19 +26338,19 @@
         <v>141250.6549457511</v>
       </c>
       <c r="K2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="L2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="M2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="N2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="O2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="P2" t="n">
         <v>143682.3097262497</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245463</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363179</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42973.54596471231</v>
+        <v>42973.54596471228</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.36846171962</v>
+        <v>7507.368461719678</v>
       </c>
       <c r="G4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7507.36846171969</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7507.368461719703</v>
+      </c>
+      <c r="J4" t="n">
         <v>7507.368461719683</v>
       </c>
-      <c r="H4" t="n">
-        <v>7507.368461719659</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7507.368461719668</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7507.368461719667</v>
-      </c>
       <c r="K4" t="n">
-        <v>15498.2277248131</v>
+        <v>15498.22772481319</v>
       </c>
       <c r="L4" t="n">
-        <v>15498.2277248131</v>
+        <v>15498.22772481314</v>
       </c>
       <c r="M4" t="n">
-        <v>15498.22772481311</v>
+        <v>15498.22772481314</v>
       </c>
       <c r="N4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481313</v>
       </c>
       <c r="O4" t="n">
-        <v>15498.22772481312</v>
+        <v>15498.22772481313</v>
       </c>
       <c r="P4" t="n">
-        <v>15498.22772481312</v>
+        <v>15498.22772481313</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1134618.25813495</v>
+        <v>-1135013.079076103</v>
       </c>
       <c r="C6" t="n">
-        <v>-82369.32626033947</v>
+        <v>-82369.32626033951</v>
       </c>
       <c r="D6" t="n">
-        <v>-82369.3262603395</v>
+        <v>-82369.32626033941</v>
       </c>
       <c r="E6" t="n">
-        <v>-474864.684964422</v>
+        <v>-474899.4228898574</v>
       </c>
       <c r="F6" t="n">
-        <v>32620.75666012432</v>
+        <v>32586.01873468867</v>
       </c>
       <c r="G6" t="n">
-        <v>32620.75666012429</v>
+        <v>32586.01873468864</v>
       </c>
       <c r="H6" t="n">
-        <v>32620.75666012436</v>
+        <v>32586.01873468858</v>
       </c>
       <c r="I6" t="n">
-        <v>32620.75666012436</v>
+        <v>32586.01873468861</v>
       </c>
       <c r="J6" t="n">
-        <v>-134984.4211498582</v>
+        <v>-135019.1590752939</v>
       </c>
       <c r="K6" t="n">
-        <v>5592.248153889421</v>
+        <v>5592.248153889275</v>
       </c>
       <c r="L6" t="n">
-        <v>25019.96614752121</v>
+        <v>25019.96614752112</v>
       </c>
       <c r="M6" t="n">
-        <v>-107587.3275814056</v>
+        <v>-107587.3275814057</v>
       </c>
       <c r="N6" t="n">
-        <v>25019.96614752109</v>
+        <v>25019.9661475211</v>
       </c>
       <c r="O6" t="n">
-        <v>25019.96614752119</v>
+        <v>25019.9661475211</v>
       </c>
       <c r="P6" t="n">
         <v>5592.248153889377</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,13 +26814,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241351</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>153.6923223338901</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.88775964233412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,10 +27540,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>170.9258179227453</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>127.8517037636983</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>198.8000939010709</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>109.1719400704441</v>
       </c>
       <c r="U7" t="n">
-        <v>151.1409927230491</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>31.83707827026211</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,10 +27910,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>214.4609127072767</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74.70062731202948</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>210.8592007360464</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28804,13 +28804,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511221</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972286962</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>165.2255134509767</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>225.4828684302367</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32555,10 +32555,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>732.4825987614911</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
@@ -32573,7 +32573,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>399.190220890813</v>
+        <v>220.7280629601522</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,34 +33503,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>550.5977692975237</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>211.0222436375122</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215491</v>
+        <v>442.4296662895795</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>489.441584012642</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P6" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215491</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35261,19 +35261,19 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>615.5326193530514</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>197.8432633066776</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902929</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066779</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>31.25110603664647</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295251</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>82.88662398579233</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.4543240367771</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394599</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394727</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>261.348781916454</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36999,10 +36999,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>416.6233618831934</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,10 +37236,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016748</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986648</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
